--- a/Excel/函数示例.xlsx
+++ b/Excel/函数示例.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="14808" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -29,8 +27,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,7 +84,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -160,7 +158,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -195,7 +192,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -371,20 +367,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,43 +397,43 @@
         <v>+1</v>
       </c>
       <c r="E1" s="1" t="str">
-        <f t="shared" ref="C1:M1" ca="1" si="0">TEXT(RANDBETWEEN(-5, 5), "+0;-0;0")</f>
-        <v>+2</v>
+        <f t="shared" ref="E1:M1" ca="1" si="0">TEXT(RANDBETWEEN(-5, 5), "+0;-0;0")</f>
+        <v>-4</v>
       </c>
       <c r="F1" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>+1</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>+4</v>
       </c>
-      <c r="G1" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="H1" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="I1" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
-      </c>
       <c r="J1" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>+3</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>+4</v>
       </c>
-      <c r="K1" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>+4</v>
-      </c>
-      <c r="L1" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>+5</v>
-      </c>
       <c r="M1" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+5</v>
+        <v>+3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -451,30 +447,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>